--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18.387329956752549</v>
+        <v>18.387329972518121</v>
       </c>
       <c r="C2">
-        <v>30.273527327083897</v>
+        <v>30.273527327145601</v>
       </c>
       <c r="D2">
-        <v>35.860469219661596</v>
+        <v>35.86046917274642</v>
       </c>
       <c r="E2">
-        <v>72.255503908715596</v>
+        <v>72.25550387350701</v>
       </c>
       <c r="F2">
-        <v>32.125608684531379</v>
+        <v>32.125608619098088</v>
       </c>
       <c r="G2">
-        <v>14.175405797179522</v>
+        <v>14.17540578383708</v>
       </c>
       <c r="H2">
-        <v>37.207165335666588</v>
+        <v>37.20716529928302</v>
       </c>
       <c r="I2">
-        <v>36.871983449420242</v>
+        <v>36.871983438405849</v>
       </c>
       <c r="J2">
-        <v>36.063189098870794</v>
+        <v>36.063189066597971</v>
       </c>
       <c r="K2">
-        <v>14.438801430388533</v>
+        <v>14.438801389395541</v>
       </c>
       <c r="L2">
-        <v>6.5024564942952336</v>
+        <v>6.502456504786112</v>
       </c>
       <c r="M2">
-        <v>-14.600098892551452</v>
+        <v>-14.60009888230727</v>
       </c>
       <c r="N2">
-        <v>38.360010092689443</v>
+        <v>38.360010089410423</v>
       </c>
       <c r="O2">
-        <v>40.317622136924854</v>
+        <v>40.317622037561577</v>
       </c>
       <c r="P2">
-        <v>47.40897941437413</v>
+        <v>47.408979418165799</v>
       </c>
       <c r="Q2">
-        <v>2.2960622940073057</v>
+        <v>2.2960622801898536</v>
       </c>
       <c r="R2">
-        <v>-18.792896551869418</v>
+        <v>-18.792896649285503</v>
       </c>
       <c r="S2">
-        <v>63.636744951538226</v>
+        <v>63.636745001332606</v>
       </c>
       <c r="T2">
-        <v>60.592616126483058</v>
+        <v>60.592616153552527</v>
       </c>
       <c r="U2">
-        <v>6.1184724522001694</v>
+        <v>6.1184723739591931</v>
       </c>
       <c r="V2">
-        <v>22.424860751531181</v>
+        <v>22.424860694858495</v>
       </c>
       <c r="W2">
-        <v>-52.528093137715693</v>
+        <v>-52.528093190899149</v>
       </c>
       <c r="X2">
-        <v>9.815867120375902</v>
+        <v>9.8158671149890289</v>
       </c>
       <c r="Y2">
-        <v>74.732888545934969</v>
+        <v>74.732888467306807</v>
       </c>
       <c r="Z2">
-        <v>39.40278202277652</v>
+        <v>39.40278194804111</v>
       </c>
       <c r="AA2">
-        <v>52.794384250283777</v>
+        <v>52.794384185926369</v>
       </c>
       <c r="AB2">
-        <v>38.50284540618874</v>
+        <v>38.502845304176596</v>
       </c>
       <c r="AC2">
-        <v>7.2972905814272249</v>
+        <v>7.2972905316476169</v>
       </c>
       <c r="AD2">
-        <v>78.293679669992059</v>
+        <v>78.293679530367854</v>
       </c>
       <c r="AE2">
-        <v>31.771703036150669</v>
+        <v>31.77170297719195</v>
       </c>
       <c r="AF2">
-        <v>41.109814275177548</v>
+        <v>41.109814225960392</v>
       </c>
       <c r="AG2">
-        <v>51.142599446509251</v>
+        <v>51.142599372639516</v>
       </c>
       <c r="AH2">
-        <v>50.601496991728276</v>
+        <v>50.601496928026371</v>
       </c>
       <c r="AI2">
-        <v>36.698470767480174</v>
+        <v>36.698470687796998</v>
       </c>
       <c r="AJ2">
-        <v>36.527839201950478</v>
+        <v>36.527839142373985</v>
       </c>
       <c r="AK2">
-        <v>34.491136258318527</v>
+        <v>34.49113620742942</v>
       </c>
       <c r="AL2">
-        <v>-1.5377897598153059</v>
+        <v>-1.5377898042111073</v>
       </c>
       <c r="AM2">
-        <v>46.644035407549083</v>
+        <v>46.644035356564814</v>
       </c>
       <c r="AN2">
-        <v>41.970064964095997</v>
+        <v>41.970064878831742</v>
       </c>
       <c r="AO2">
-        <v>68.027697763301717</v>
+        <v>68.027697732766796</v>
       </c>
       <c r="AP2">
-        <v>51.469924657652946</v>
+        <v>51.469924570746031</v>
       </c>
       <c r="AQ2">
-        <v>1.3825368589202078</v>
+        <v>1.382536800783227</v>
       </c>
       <c r="AR2">
-        <v>66.706537861385115</v>
+        <v>66.706537832440631</v>
       </c>
       <c r="AS2">
-        <v>59.449509074288855</v>
+        <v>59.449508994003033</v>
       </c>
       <c r="AT2">
-        <v>34.943002776004285</v>
+        <v>34.943002708854372</v>
       </c>
       <c r="AU2">
-        <v>55.218874784570382</v>
+        <v>55.218874658280647</v>
       </c>
       <c r="AV2">
-        <v>14.759135318071984</v>
+        <v>14.759135158382906</v>
       </c>
       <c r="AW2">
-        <v>20.284551531640716</v>
+        <v>20.284551450495179</v>
       </c>
       <c r="AX2">
-        <v>57.476518620002246</v>
+        <v>57.476518529639378</v>
       </c>
       <c r="AY2">
-        <v>76.93171926292051</v>
+        <v>76.931719187917153</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19.00395948343785</v>
+        <v>19.003959442793857</v>
       </c>
       <c r="C3">
-        <v>22.341577807068923</v>
+        <v>22.341577730867446</v>
       </c>
       <c r="D3">
-        <v>54.289516679939112</v>
+        <v>54.289516566614651</v>
       </c>
       <c r="E3">
-        <v>53.079528417254316</v>
+        <v>53.0795283505309</v>
       </c>
       <c r="F3">
-        <v>23.264989096108042</v>
+        <v>23.264989028047825</v>
       </c>
       <c r="G3">
-        <v>43.446185951315442</v>
+        <v>43.446185915309897</v>
       </c>
       <c r="H3">
-        <v>1.0242248733934729</v>
+        <v>1.0242248416056472</v>
       </c>
       <c r="I3">
-        <v>14.879965343815742</v>
+        <v>14.879965314810892</v>
       </c>
       <c r="J3">
-        <v>46.646831052740268</v>
+        <v>46.646831034028857</v>
       </c>
       <c r="K3">
-        <v>136.73192328264702</v>
+        <v>136.7319232786497</v>
       </c>
       <c r="L3">
-        <v>46.689240001617641</v>
+        <v>46.689239965671213</v>
       </c>
       <c r="M3">
-        <v>11.012776980063709</v>
+        <v>11.01197620280726</v>
       </c>
       <c r="N3">
-        <v>31.06422879613897</v>
+        <v>31.064228744773025</v>
       </c>
       <c r="O3">
-        <v>-48.546463945670496</v>
+        <v>-48.546463981371879</v>
       </c>
       <c r="P3">
-        <v>45.235844727879574</v>
+        <v>45.235844626664495</v>
       </c>
       <c r="Q3">
-        <v>28.066285809321538</v>
+        <v>28.066285786318186</v>
       </c>
       <c r="R3">
-        <v>-4.1309211146314606</v>
+        <v>-4.1309211554842777</v>
       </c>
       <c r="S3">
-        <v>56.330068211212179</v>
+        <v>56.330068197511693</v>
       </c>
       <c r="T3">
-        <v>51.954761364395985</v>
+        <v>51.954761316888352</v>
       </c>
       <c r="U3">
-        <v>39.016108439518895</v>
+        <v>39.016108393378815</v>
       </c>
       <c r="V3">
-        <v>41.866180546512027</v>
+        <v>41.866180508823213</v>
       </c>
       <c r="W3">
-        <v>-4.6277410785065403</v>
+        <v>-4.6277411318696444</v>
       </c>
       <c r="X3">
-        <v>-5.9817121954529089</v>
+        <v>-5.9817122363298418</v>
       </c>
       <c r="Y3">
-        <v>85.527224356762602</v>
+        <v>85.527224247879957</v>
       </c>
       <c r="Z3">
-        <v>57.361002471590382</v>
+        <v>57.361002367369665</v>
       </c>
       <c r="AA3">
-        <v>55.411390909397142</v>
+        <v>55.411390839357225</v>
       </c>
       <c r="AB3">
-        <v>52.911438710536409</v>
+        <v>52.911438608034231</v>
       </c>
       <c r="AC3">
-        <v>54.863030633065904</v>
+        <v>54.863030596433745</v>
       </c>
       <c r="AD3">
-        <v>66.5269105061289</v>
+        <v>66.526910446439672</v>
       </c>
       <c r="AE3">
-        <v>59.923965912399609</v>
+        <v>59.923965877936972</v>
       </c>
       <c r="AF3">
-        <v>36.080434840638645</v>
+        <v>36.080434781635432</v>
       </c>
       <c r="AG3">
-        <v>28.141568750174073</v>
+        <v>28.141568699182312</v>
       </c>
       <c r="AH3">
-        <v>19.842813254533393</v>
+        <v>19.842813198683629</v>
       </c>
       <c r="AI3">
-        <v>118.66697349574764</v>
+        <v>118.66697341199534</v>
       </c>
       <c r="AJ3">
-        <v>57.775094002790517</v>
+        <v>57.775093975720559</v>
       </c>
       <c r="AK3">
-        <v>45.505922785198919</v>
+        <v>45.505922711413319</v>
       </c>
       <c r="AL3">
-        <v>35.218194973265689</v>
+        <v>35.218194883810249</v>
       </c>
       <c r="AM3">
-        <v>37.971039927006814</v>
+        <v>37.971039802095248</v>
       </c>
       <c r="AN3">
-        <v>-34.851543282299261</v>
+        <v>-34.851543331861492</v>
       </c>
       <c r="AO3">
-        <v>56.584222392111684</v>
+        <v>56.584222256143427</v>
       </c>
       <c r="AP3">
-        <v>19.213742049102358</v>
+        <v>19.213741976443309</v>
       </c>
       <c r="AQ3">
-        <v>35.731535829769705</v>
+        <v>35.731535717329507</v>
       </c>
       <c r="AR3">
-        <v>70.540195358867251</v>
+        <v>70.540195321978288</v>
       </c>
       <c r="AS3">
-        <v>43.016512892313521</v>
+        <v>43.01651284754049</v>
       </c>
       <c r="AT3">
-        <v>58.818866330704424</v>
+        <v>58.818866206539134</v>
       </c>
       <c r="AU3">
-        <v>33.828117772467294</v>
+        <v>33.828117768702739</v>
       </c>
       <c r="AV3">
-        <v>21.73779274430273</v>
+        <v>21.737792644792652</v>
       </c>
       <c r="AW3">
-        <v>18.037784728163007</v>
+        <v>18.03778465968227</v>
       </c>
       <c r="AX3">
-        <v>26.804839233373428</v>
+        <v>26.80483917635496</v>
       </c>
       <c r="AY3">
-        <v>86.38434365974058</v>
+        <v>86.384343549118469</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>18.387329972518121</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>30.273527327145601</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>35.86046917274642</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>72.25550387350701</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>32.125608619098088</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>14.17540578383708</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>37.20716529928302</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>36.871983438405849</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>36.063189066597971</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.438801389395541</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.502456504786112</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-14.60009888230727</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>38.360010089410423</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>40.317622037561577</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>47.408979418165799</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.2960622801898536</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-18.792896649285503</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>63.636745001332606</v>
+        <v>43.829579629877003</v>
       </c>
       <c r="T2">
         <v>60.592616153552527</v>
@@ -588,55 +477,55 @@
         <v>39.40278194804111</v>
       </c>
       <c r="AA2">
-        <v>52.794384185926369</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>38.502845304176596</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.2972905316476169</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>78.293679530367854</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>31.77170297719195</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>41.109814225960392</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>51.142599372639516</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>50.601496928026371</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>36.698470687796998</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>36.527839142373985</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>34.49113620742942</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-1.5377898042111073</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>46.644035356564814</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>41.970064878831742</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>68.027697732766796</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>51.469924570746031</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.382536800783227</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>66.706537832440631</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>19.003959442793857</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>22.341577730867446</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>54.289516566614651</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>53.0795283505309</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.264989028047825</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>43.446185915309897</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.0242248416056472</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>14.879965314810892</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>46.646831034028857</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>136.7319232786497</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>46.689239965671213</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.01197620280726</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>31.064228744773025</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-48.546463981371879</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>45.235844626664495</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>28.066285786318186</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-4.1309211554842777</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>56.330068197511693</v>
@@ -743,55 +629,55 @@
         <v>57.361002367369665</v>
       </c>
       <c r="AA3">
-        <v>55.411390839357225</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>52.911438608034231</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>54.863030596433745</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>66.526910446439672</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>59.923965877936972</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>36.080434781635432</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>28.141568699182312</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>19.842813198683629</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>118.66697341199534</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>57.775093975720559</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>45.505922711413319</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>35.218194883810249</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>37.971039802095248</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-34.851543331861492</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>56.584222256143427</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>19.213741976443309</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>35.731535717329507</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>70.540195321978288</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.1395280839714665</v>
+        <v>44.300831108300457</v>
       </c>
       <c r="C2">
-        <v>14.721198061084568</v>
+        <v>39.221224375141411</v>
       </c>
       <c r="D2">
-        <v>51.186851682670401</v>
+        <v>48.662927375082532</v>
       </c>
       <c r="E2">
-        <v>26.694415955142347</v>
+        <v>28.480521867032515</v>
       </c>
       <c r="F2">
         <v>33.783052586840576</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16.456989414059773</v>
+        <v>68.091621566852538</v>
       </c>
       <c r="C3">
-        <v>29.78277914308093</v>
+        <v>37.859936733572958</v>
       </c>
       <c r="D3">
-        <v>42.642372979346064</v>
+        <v>45.27787645089181</v>
       </c>
       <c r="E3">
-        <v>112.07090281264016</v>
+        <v>17.934304638059899</v>
       </c>
       <c r="F3">
         <v>24.436285336968204</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.1395280839714665</v>
+        <v>16.31496124559424</v>
       </c>
       <c r="C2">
-        <v>14.721198061084568</v>
+        <v>44.300831108300457</v>
       </c>
       <c r="D2">
-        <v>51.186851682670401</v>
+        <v>47.442058184454872</v>
       </c>
       <c r="E2">
-        <v>26.694415955142347</v>
+        <v>48.662927375082532</v>
       </c>
       <c r="F2">
         <v>33.783052586840576</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16.456989414059773</v>
+        <v>27.130757766161199</v>
       </c>
       <c r="C3">
-        <v>29.78277914308093</v>
+        <v>68.091621566852538</v>
       </c>
       <c r="D3">
-        <v>42.642372979346064</v>
+        <v>57.162003373349634</v>
       </c>
       <c r="E3">
-        <v>158.46780849148919</v>
+        <v>45.27787645089181</v>
       </c>
       <c r="F3">
         <v>24.436285336968204</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.139528169850438</v>
+      </c>
+      <c r="C2">
+        <v>14.721197899100929</v>
+      </c>
+      <c r="D2">
+        <v>51.186851371104581</v>
+      </c>
+      <c r="E2">
+        <v>26.694415735626638</v>
+      </c>
+      <c r="F2">
+        <v>33.783052198185246</v>
+      </c>
+      <c r="G2">
+        <v>32.770432804264118</v>
+      </c>
+      <c r="H2">
+        <v>8.6255160362107208</v>
+      </c>
+      <c r="I2">
+        <v>18.465177814226525</v>
+      </c>
+      <c r="J2">
+        <v>23.314491653339875</v>
+      </c>
+      <c r="K2">
+        <v>20.067866570961293</v>
+      </c>
+      <c r="L2">
+        <v>14.862292434016569</v>
+      </c>
+      <c r="M2">
+        <v>31.164051138234587</v>
+      </c>
+      <c r="N2">
         <v>16.31496124559424</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>44.300831108300457</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-1.2788377227621439</v>
+      </c>
+      <c r="Q2">
+        <v>14.388507304223655</v>
+      </c>
+      <c r="R2">
+        <v>39.221224375141411</v>
+      </c>
+      <c r="T2">
+        <v>22.971488022080806</v>
+      </c>
+      <c r="U2">
+        <v>39.114370773735743</v>
+      </c>
+      <c r="V2">
+        <v>32.163210253902754</v>
+      </c>
+      <c r="W2">
+        <v>30.323170516037173</v>
+      </c>
+      <c r="X2">
+        <v>18.451139603377051</v>
+      </c>
+      <c r="Y2">
+        <v>44.32214418932363</v>
+      </c>
+      <c r="Z2">
+        <v>68.065144635809091</v>
+      </c>
+      <c r="AA2">
+        <v>57.246062682861734</v>
+      </c>
+      <c r="AB2">
+        <v>77.218492198631679</v>
+      </c>
+      <c r="AC2">
+        <v>47.00634839210025</v>
+      </c>
+      <c r="AD2">
+        <v>64.493278618172056</v>
+      </c>
+      <c r="AE2">
+        <v>33.414605727946466</v>
+      </c>
+      <c r="AF2">
+        <v>43.735452003582679</v>
+      </c>
+      <c r="AG2">
+        <v>41.40137804548111</v>
+      </c>
+      <c r="AH2">
+        <v>49.473337046218305</v>
+      </c>
+      <c r="AI2">
+        <v>69.248251090969873</v>
+      </c>
+      <c r="AJ2">
+        <v>41.436508992158743</v>
+      </c>
+      <c r="AK2">
+        <v>23.124652088801334</v>
+      </c>
+      <c r="AL2">
+        <v>20.225298405597162</v>
+      </c>
+      <c r="AM2">
         <v>47.442058184454872</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>48.662927375082532</v>
       </c>
-      <c r="F2">
-        <v>33.783052586840576</v>
-      </c>
-      <c r="G2">
-        <v>32.77043279487507</v>
-      </c>
-      <c r="H2">
-        <v>8.6255161812289778</v>
-      </c>
-      <c r="I2">
-        <v>18.46517818359483</v>
-      </c>
-      <c r="J2">
-        <v>23.314491922969154</v>
-      </c>
-      <c r="K2">
-        <v>20.067866823626705</v>
-      </c>
-      <c r="L2">
-        <v>14.862292629074499</v>
-      </c>
-      <c r="M2">
-        <v>31.164050925312857</v>
-      </c>
-      <c r="N2">
-        <v>16.314961415998098</v>
-      </c>
-      <c r="O2">
-        <v>44.300831548197081</v>
-      </c>
-      <c r="P2">
-        <v>-1.2788377895068237</v>
-      </c>
-      <c r="Q2">
-        <v>14.388507418210489</v>
-      </c>
-      <c r="R2">
-        <v>39.221224845259293</v>
-      </c>
-      <c r="T2">
-        <v>22.971488175051377</v>
-      </c>
-      <c r="U2">
-        <v>39.114371317615053</v>
-      </c>
-      <c r="V2">
-        <v>32.163210736235108</v>
-      </c>
-      <c r="W2">
-        <v>30.323170734411875</v>
-      </c>
-      <c r="X2">
-        <v>18.451139645995248</v>
-      </c>
-      <c r="Y2">
-        <v>44.322144631527401</v>
-      </c>
-      <c r="Z2">
-        <v>68.065145157018407</v>
-      </c>
-      <c r="AA2">
-        <v>57.246063182134286</v>
-      </c>
-      <c r="AB2">
-        <v>77.218492902431052</v>
-      </c>
-      <c r="AC2">
-        <v>47.006348722821805</v>
-      </c>
-      <c r="AD2">
-        <v>64.493279474036711</v>
-      </c>
-      <c r="AE2">
-        <v>33.414606112900366</v>
-      </c>
-      <c r="AF2">
-        <v>43.735452330638239</v>
-      </c>
-      <c r="AG2">
-        <v>41.401378455983952</v>
-      </c>
-      <c r="AH2">
-        <v>49.473337417291511</v>
-      </c>
-      <c r="AI2">
-        <v>69.248251697343903</v>
-      </c>
-      <c r="AJ2">
-        <v>41.436509303174475</v>
-      </c>
-      <c r="AK2">
-        <v>23.124652411926323</v>
-      </c>
-      <c r="AL2">
-        <v>20.225298716298948</v>
-      </c>
-      <c r="AM2">
-        <v>47.442058462426679</v>
-      </c>
-      <c r="AN2">
-        <v>48.662927939600451</v>
-      </c>
       <c r="AO2">
-        <v>39.255845183885128</v>
+        <v>39.255844954988582</v>
       </c>
       <c r="AP2">
-        <v>42.670108738778261</v>
+        <v>42.670108351012573</v>
       </c>
       <c r="AQ2">
-        <v>28.48052218040068</v>
+        <v>28.480521867032515</v>
       </c>
       <c r="AR2">
-        <v>31.087843417323768</v>
+        <v>31.087843204687054</v>
       </c>
       <c r="AS2">
-        <v>25.448096124069831</v>
+        <v>25.448095610161364</v>
       </c>
       <c r="AT2">
-        <v>66.540441443949177</v>
+        <v>66.540440982541242</v>
       </c>
       <c r="AU2">
-        <v>26.365284863431082</v>
+        <v>26.365284563888498</v>
       </c>
       <c r="AV2">
-        <v>55.897456492912987</v>
+        <v>55.897455891724888</v>
       </c>
       <c r="AW2">
-        <v>58.826276591353597</v>
+        <v>58.826276088405884</v>
       </c>
       <c r="AX2">
-        <v>57.628507147263086</v>
+        <v>57.628506525040244</v>
       </c>
       <c r="AY2">
-        <v>55.386269823811432</v>
+        <v>55.3862693283562</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>16.456989177277908</v>
+      </c>
+      <c r="C3">
+        <v>29.782778694832807</v>
+      </c>
+      <c r="D3">
+        <v>42.642372163731395</v>
+      </c>
+      <c r="E3">
+        <v>158.46780690141864</v>
+      </c>
+      <c r="F3">
+        <v>24.436284983239496</v>
+      </c>
+      <c r="G3">
+        <v>33.077633677551518</v>
+      </c>
+      <c r="H3">
+        <v>24.294246469811373</v>
+      </c>
+      <c r="I3">
+        <v>11.312065193859958</v>
+      </c>
+      <c r="J3">
+        <v>30.319379600931107</v>
+      </c>
+      <c r="K3">
+        <v>26.418274057849029</v>
+      </c>
+      <c r="L3">
+        <v>25.951867216537376</v>
+      </c>
+      <c r="M3">
+        <v>28.916904625109787</v>
+      </c>
+      <c r="N3">
         <v>27.130757766161199</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>68.091621566852538</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>50.562881989129991</v>
+      </c>
+      <c r="Q3">
+        <v>12.729995367124866</v>
+      </c>
+      <c r="R3">
+        <v>37.859936733572958</v>
+      </c>
+      <c r="S3">
+        <v>28.658185784066447</v>
+      </c>
+      <c r="T3">
+        <v>33.220217348115163</v>
+      </c>
+      <c r="U3">
+        <v>37.303081370348536</v>
+      </c>
+      <c r="V3">
+        <v>24.522394352557608</v>
+      </c>
+      <c r="W3">
+        <v>22.217184635212973</v>
+      </c>
+      <c r="X3">
+        <v>30.078247766503601</v>
+      </c>
+      <c r="Y3">
+        <v>69.017483403964803</v>
+      </c>
+      <c r="Z3">
+        <v>69.005385475877304</v>
+      </c>
+      <c r="AA3">
+        <v>49.550501130789108</v>
+      </c>
+      <c r="AB3">
+        <v>53.498335330675808</v>
+      </c>
+      <c r="AC3">
+        <v>34.371923469880592</v>
+      </c>
+      <c r="AD3">
+        <v>53.118024785522536</v>
+      </c>
+      <c r="AE3">
+        <v>46.382649169579757</v>
+      </c>
+      <c r="AF3">
+        <v>61.405807478151317</v>
+      </c>
+      <c r="AG3">
+        <v>31.720739824070986</v>
+      </c>
+      <c r="AH3">
+        <v>26.899032550773079</v>
+      </c>
+      <c r="AI3">
+        <v>54.617673121988489</v>
+      </c>
+      <c r="AJ3">
+        <v>55.677964880389538</v>
+      </c>
+      <c r="AK3">
+        <v>39.767796560115649</v>
+      </c>
+      <c r="AL3">
+        <v>45.928798304673215</v>
+      </c>
+      <c r="AM3">
         <v>57.162003373349634</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>45.27787645089181</v>
       </c>
-      <c r="F3">
-        <v>24.436285336968204</v>
-      </c>
-      <c r="G3">
-        <v>33.077633906215773</v>
-      </c>
-      <c r="H3">
-        <v>24.294246671769919</v>
-      </c>
-      <c r="I3">
-        <v>11.312065376296873</v>
-      </c>
-      <c r="J3">
-        <v>30.319379737464331</v>
-      </c>
-      <c r="K3">
-        <v>26.418274292484313</v>
-      </c>
-      <c r="L3">
-        <v>25.951867463551022</v>
-      </c>
-      <c r="M3">
-        <v>28.925148636198848</v>
-      </c>
-      <c r="N3">
-        <v>27.130758080989875</v>
-      </c>
-      <c r="O3">
-        <v>68.09162187056971</v>
-      </c>
-      <c r="P3">
-        <v>50.562882676008059</v>
-      </c>
-      <c r="Q3">
-        <v>12.729995481394626</v>
-      </c>
-      <c r="R3">
-        <v>37.859936974475218</v>
-      </c>
-      <c r="S3">
-        <v>28.658185871009966</v>
-      </c>
-      <c r="T3">
-        <v>33.220217673694599</v>
-      </c>
-      <c r="U3">
-        <v>37.303081688208465</v>
-      </c>
-      <c r="V3">
-        <v>24.522394808998996</v>
-      </c>
-      <c r="W3">
-        <v>22.217184890442606</v>
-      </c>
-      <c r="X3">
-        <v>30.078248037511518</v>
-      </c>
-      <c r="Y3">
-        <v>69.017484056872078</v>
-      </c>
-      <c r="Z3">
-        <v>69.005386068838064</v>
-      </c>
-      <c r="AA3">
-        <v>49.550501564511393</v>
-      </c>
-      <c r="AB3">
-        <v>53.498335936949267</v>
-      </c>
-      <c r="AC3">
-        <v>34.371923798669101</v>
-      </c>
-      <c r="AD3">
-        <v>53.118025245424093</v>
-      </c>
-      <c r="AE3">
-        <v>46.382649367119633</v>
-      </c>
-      <c r="AF3">
-        <v>61.405807917627065</v>
-      </c>
-      <c r="AG3">
-        <v>31.720740089520348</v>
-      </c>
-      <c r="AH3">
-        <v>26.899032880622215</v>
-      </c>
-      <c r="AI3">
-        <v>54.617673762182363</v>
-      </c>
-      <c r="AJ3">
-        <v>55.677965070868574</v>
-      </c>
-      <c r="AK3">
-        <v>39.767797107896108</v>
-      </c>
-      <c r="AL3">
-        <v>45.928798852634586</v>
-      </c>
-      <c r="AM3">
-        <v>57.16200398324527</v>
-      </c>
-      <c r="AN3">
-        <v>45.27787682358305</v>
-      </c>
       <c r="AO3">
-        <v>85.456723711747046</v>
+        <v>85.456722696165926</v>
       </c>
       <c r="AP3">
-        <v>49.15444766195094</v>
+        <v>49.154447243661146</v>
       </c>
       <c r="AQ3">
-        <v>17.934304745660988</v>
+        <v>17.934304638059899</v>
       </c>
       <c r="AR3">
-        <v>33.871488645165776</v>
+        <v>33.871488343002774</v>
       </c>
       <c r="AS3">
-        <v>42.154340688149254</v>
+        <v>42.154340384685078</v>
       </c>
       <c r="AT3">
-        <v>48.375312778145947</v>
+        <v>48.375312036434238</v>
       </c>
       <c r="AU3">
-        <v>19.88933471683972</v>
+        <v>19.889335073216817</v>
       </c>
       <c r="AV3">
-        <v>44.724897053244561</v>
+        <v>44.724896571866715</v>
       </c>
       <c r="AW3">
-        <v>38.157182029906807</v>
+        <v>38.157181584347363</v>
       </c>
       <c r="AX3">
-        <v>31.06486330231818</v>
+        <v>31.064862890320072</v>
       </c>
       <c r="AY3">
-        <v>66.731041574707803</v>
+        <v>66.731040841512623</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_common_max.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -337,7 +342,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -351,7 +356,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -513,151 +518,151 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.139528169850438</v>
+        <v>9.1395280839714665</v>
       </c>
       <c r="C2">
-        <v>14.721197899100929</v>
+        <v>14.721198061084568</v>
       </c>
       <c r="D2">
-        <v>51.186851371104581</v>
+        <v>51.186851682670401</v>
       </c>
       <c r="E2">
-        <v>26.694415735626638</v>
+        <v>26.694415955142347</v>
       </c>
       <c r="F2">
-        <v>33.783052198185246</v>
+        <v>33.783052586840576</v>
       </c>
       <c r="G2">
-        <v>32.770432804264118</v>
+        <v>32.77043279487507</v>
       </c>
       <c r="H2">
-        <v>8.6255160362107208</v>
+        <v>8.6255161812289778</v>
       </c>
       <c r="I2">
-        <v>18.465177814226525</v>
+        <v>18.46517818359483</v>
       </c>
       <c r="J2">
-        <v>23.314491653339875</v>
+        <v>23.314491922969154</v>
       </c>
       <c r="K2">
-        <v>20.067866570961293</v>
+        <v>20.067866823626705</v>
       </c>
       <c r="L2">
-        <v>14.862292434016569</v>
+        <v>14.862292629074499</v>
       </c>
       <c r="M2">
-        <v>31.164051138234587</v>
+        <v>31.164050925312857</v>
       </c>
       <c r="N2">
-        <v>16.31496124559424</v>
+        <v>16.314961415998098</v>
       </c>
       <c r="O2">
-        <v>44.300831108300457</v>
+        <v>44.300831548197081</v>
       </c>
       <c r="P2">
-        <v>-1.2788377227621439</v>
+        <v>-1.2788377895068237</v>
       </c>
       <c r="Q2">
-        <v>14.388507304223655</v>
+        <v>14.388507418210489</v>
       </c>
       <c r="R2">
-        <v>39.221224375141411</v>
+        <v>37.859936974475218</v>
       </c>
       <c r="T2">
-        <v>22.971488022080806</v>
+        <v>22.971488175051377</v>
       </c>
       <c r="U2">
-        <v>39.114370773735743</v>
+        <v>39.114371317615053</v>
       </c>
       <c r="V2">
-        <v>32.163210253902754</v>
+        <v>32.163210736235108</v>
       </c>
       <c r="W2">
-        <v>30.323170516037173</v>
+        <v>30.323170734411875</v>
       </c>
       <c r="X2">
-        <v>18.451139603377051</v>
+        <v>18.451139645995248</v>
       </c>
       <c r="Y2">
-        <v>44.32214418932363</v>
+        <v>44.322144631527401</v>
       </c>
       <c r="Z2">
-        <v>68.065144635809091</v>
+        <v>68.065145157018407</v>
       </c>
       <c r="AA2">
-        <v>57.246062682861734</v>
+        <v>57.246063182134286</v>
       </c>
       <c r="AB2">
-        <v>77.218492198631679</v>
+        <v>77.218492902431052</v>
       </c>
       <c r="AC2">
-        <v>47.00634839210025</v>
+        <v>47.006348722821805</v>
       </c>
       <c r="AD2">
-        <v>64.493278618172056</v>
+        <v>64.493279474036711</v>
       </c>
       <c r="AE2">
-        <v>33.414605727946466</v>
+        <v>33.414606112900366</v>
       </c>
       <c r="AF2">
-        <v>43.735452003582679</v>
+        <v>43.735452330638239</v>
       </c>
       <c r="AG2">
-        <v>41.40137804548111</v>
+        <v>41.401378455983952</v>
       </c>
       <c r="AH2">
-        <v>49.473337046218305</v>
+        <v>49.473337417291511</v>
       </c>
       <c r="AI2">
-        <v>69.248251090969873</v>
+        <v>69.248251697343903</v>
       </c>
       <c r="AJ2">
-        <v>41.436508992158743</v>
+        <v>41.436509303174475</v>
       </c>
       <c r="AK2">
-        <v>23.124652088801334</v>
+        <v>23.124652411926323</v>
       </c>
       <c r="AL2">
-        <v>20.225298405597162</v>
+        <v>20.225298716298948</v>
       </c>
       <c r="AM2">
-        <v>47.442058184454872</v>
+        <v>47.442058462426679</v>
       </c>
       <c r="AN2">
-        <v>48.662927375082532</v>
+        <v>48.662927939600451</v>
       </c>
       <c r="AO2">
-        <v>39.255844954988582</v>
+        <v>39.255845183885128</v>
       </c>
       <c r="AP2">
-        <v>42.670108351012573</v>
+        <v>42.670108738778261</v>
       </c>
       <c r="AQ2">
-        <v>28.480521867032515</v>
+        <v>17.934304745660988</v>
       </c>
       <c r="AR2">
-        <v>31.087843204687054</v>
+        <v>31.087843417323768</v>
       </c>
       <c r="AS2">
-        <v>25.448095610161364</v>
+        <v>25.448096124069831</v>
       </c>
       <c r="AT2">
-        <v>66.540440982541242</v>
+        <v>66.540441443949177</v>
       </c>
       <c r="AU2">
-        <v>26.365284563888498</v>
+        <v>26.365284863431082</v>
       </c>
       <c r="AV2">
-        <v>55.897455891724888</v>
+        <v>55.897456492912987</v>
       </c>
       <c r="AW2">
-        <v>58.826276088405884</v>
+        <v>58.826276591353597</v>
       </c>
       <c r="AX2">
-        <v>57.628506525040244</v>
+        <v>57.628507147263086</v>
       </c>
       <c r="AY2">
-        <v>55.3862693283562</v>
+        <v>55.386269823811432</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +670,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16.456989177277908</v>
+        <v>16.456989414059773</v>
       </c>
       <c r="C3">
-        <v>29.782778694832807</v>
+        <v>29.78277914308093</v>
       </c>
       <c r="D3">
-        <v>42.642372163731395</v>
+        <v>42.642372979346064</v>
       </c>
       <c r="E3">
-        <v>158.46780690141864</v>
+        <v>158.46780849148919</v>
       </c>
       <c r="F3">
-        <v>24.436284983239496</v>
+        <v>24.436285336968204</v>
       </c>
       <c r="G3">
-        <v>33.077633677551518</v>
+        <v>33.077633906215773</v>
       </c>
       <c r="H3">
-        <v>24.294246469811373</v>
+        <v>24.294246671769919</v>
       </c>
       <c r="I3">
-        <v>11.312065193859958</v>
+        <v>11.312065376296873</v>
       </c>
       <c r="J3">
-        <v>30.319379600931107</v>
+        <v>30.319379737464331</v>
       </c>
       <c r="K3">
-        <v>26.418274057849029</v>
+        <v>26.418274292484313</v>
       </c>
       <c r="L3">
-        <v>25.951867216537376</v>
+        <v>25.951867463551022</v>
       </c>
       <c r="M3">
-        <v>28.916904625109787</v>
+        <v>28.925148636198848</v>
       </c>
       <c r="N3">
-        <v>27.130757766161199</v>
+        <v>27.130758080989875</v>
       </c>
       <c r="O3">
-        <v>68.091621566852538</v>
+        <v>68.09162187056971</v>
       </c>
       <c r="P3">
-        <v>50.562881989129991</v>
+        <v>50.562882676008059</v>
       </c>
       <c r="Q3">
-        <v>12.729995367124866</v>
+        <v>12.729995481394626</v>
       </c>
       <c r="R3">
-        <v>37.859936733572958</v>
+        <v>37.575134000392211</v>
       </c>
       <c r="S3">
-        <v>28.658185784066447</v>
+        <v>28.658185871009966</v>
       </c>
       <c r="T3">
-        <v>33.220217348115163</v>
+        <v>33.220217673694599</v>
       </c>
       <c r="U3">
-        <v>37.303081370348536</v>
+        <v>37.303081688208465</v>
       </c>
       <c r="V3">
-        <v>24.522394352557608</v>
+        <v>24.522394808998996</v>
       </c>
       <c r="W3">
-        <v>22.217184635212973</v>
+        <v>22.217184890442606</v>
       </c>
       <c r="X3">
-        <v>30.078247766503601</v>
+        <v>30.078248037511518</v>
       </c>
       <c r="Y3">
-        <v>69.017483403964803</v>
+        <v>69.017484056872078</v>
       </c>
       <c r="Z3">
-        <v>69.005385475877304</v>
+        <v>69.005386068838064</v>
       </c>
       <c r="AA3">
-        <v>49.550501130789108</v>
+        <v>49.550501564511393</v>
       </c>
       <c r="AB3">
-        <v>53.498335330675808</v>
+        <v>53.498335936949267</v>
       </c>
       <c r="AC3">
-        <v>34.371923469880592</v>
+        <v>34.371923798669101</v>
       </c>
       <c r="AD3">
-        <v>53.118024785522536</v>
+        <v>53.118025245424093</v>
       </c>
       <c r="AE3">
-        <v>46.382649169579757</v>
+        <v>46.382649367119633</v>
       </c>
       <c r="AF3">
-        <v>61.405807478151317</v>
+        <v>61.405807917627065</v>
       </c>
       <c r="AG3">
-        <v>31.720739824070986</v>
+        <v>31.720740089520348</v>
       </c>
       <c r="AH3">
-        <v>26.899032550773079</v>
+        <v>26.899032880622215</v>
       </c>
       <c r="AI3">
-        <v>54.617673121988489</v>
+        <v>54.617673762182363</v>
       </c>
       <c r="AJ3">
-        <v>55.677964880389538</v>
+        <v>55.677965070868574</v>
       </c>
       <c r="AK3">
-        <v>39.767796560115649</v>
+        <v>39.767797107896108</v>
       </c>
       <c r="AL3">
-        <v>45.928798304673215</v>
+        <v>45.928798852634586</v>
       </c>
       <c r="AM3">
-        <v>57.162003373349634</v>
+        <v>57.16200398324527</v>
       </c>
       <c r="AN3">
-        <v>45.27787645089181</v>
+        <v>45.27787682358305</v>
       </c>
       <c r="AO3">
-        <v>85.456722696165926</v>
+        <v>85.456723711747046</v>
       </c>
       <c r="AP3">
-        <v>49.154447243661146</v>
+        <v>49.15444766195094</v>
       </c>
       <c r="AQ3">
-        <v>17.934304638059899</v>
+        <v>17.667256728138359</v>
       </c>
       <c r="AR3">
-        <v>33.871488343002774</v>
+        <v>33.871488645165776</v>
       </c>
       <c r="AS3">
-        <v>42.154340384685078</v>
+        <v>42.154340688149254</v>
       </c>
       <c r="AT3">
-        <v>48.375312036434238</v>
+        <v>48.375312778145947</v>
       </c>
       <c r="AU3">
-        <v>19.889335073216817</v>
+        <v>19.88933471683972</v>
       </c>
       <c r="AV3">
-        <v>44.724896571866715</v>
+        <v>44.724897053244561</v>
       </c>
       <c r="AW3">
-        <v>38.157181584347363</v>
+        <v>38.157182029906807</v>
       </c>
       <c r="AX3">
-        <v>31.064862890320072</v>
+        <v>31.06486330231818</v>
       </c>
       <c r="AY3">
-        <v>66.731040841512623</v>
+        <v>66.731041574707803</v>
       </c>
     </row>
   </sheetData>
